--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -103,28 +103,28 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>community</t>
   </si>
   <si>
     <t>hand</t>
@@ -1225,13 +1225,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.7056277056277056</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L19">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="M19">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>0.95</v>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1251,25 +1251,25 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="M20">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="N20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1329,25 +1329,25 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5823170731707317</v>
+        <v>0.578125</v>
       </c>
       <c r="L23">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>137</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1355,25 +1355,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.578125</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1381,25 +1381,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5671641791044776</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O25">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1407,25 +1407,25 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5652173913043478</v>
+        <v>0.5617647058823529</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="10:17">
